--- a/public/preprocessing/@ayubsr.xlsx
+++ b/public/preprocessing/@ayubsr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15648</v>
+        <v>26417</v>
       </c>
       <c r="C2" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mangat dapa</t>
+          <t>tentu sj</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['mangat', 'dapa']</t>
+          <t>['tentu', 'sj']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['tentu', 'saja']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['mangat', 'dapa']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['mangat', 'dapa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15649</v>
+        <v>26418</v>
       </c>
       <c r="C3" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>kok ada yang betah sampe jam segini belum tidur</t>
+          <t>met pagiee</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['kok', 'ada', 'yang', 'betah', 'sampe', 'jam', 'segini', 'belum', 'tidur']</t>
+          <t>['met', 'pagiee']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['selamat', 'pagiee']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['betah', 'sampe', 'jam', 'segini', 'tidur']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['betah', 'sampe', 'jam', 'gin', 'tidur']</t>
+          <t>['selamat', 'pagiee']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['selamat', 'pagiee']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15650</v>
+        <v>26419</v>
       </c>
       <c r="C4" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sudaaaahhhh</t>
+          <t>emng pd kemana</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['sudaaaahhhh']</t>
+          <t>['emng', 'pd', 'kemana']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['memang', 'pada', 'kemana']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['sudaaaahhhh']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['sudaaaahhhh']</t>
+          <t>['kemana']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['mana']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15651</v>
+        <v>26420</v>
       </c>
       <c r="C5" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>lagi pengen dimanjah</t>
+          <t>sekarang tiap pagi kalo gak cek hp dulu kek ada yang kurang padahal isinya gitugitu aja</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['lagi', 'pengen', 'dimanjah']</t>
+          <t>['sekarang', 'tiap', 'pagi', 'kalo', 'gak', 'cek', 'hp', 'dulu', 'kek', 'ada', 'yang', 'kurang', 'padahal', 'isinya', 'gitugitu', 'aja']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['sekarang', 'tiap', 'pagi', 'kalau', 'tidak', 'cek', 'handphone', 'dulu', 'kayak', 'ada', 'yang', 'kurang', 'padahal', 'isinya', 'gitugitu', 'saja']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['pengen', 'dimanjah']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['ken', 'dimanjah']</t>
+          <t>['pagi', 'cek', 'handphone', 'kayak', 'isinya', 'gitugitu']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['pagi', 'cek', 'handphone', 'kayak', 'isi', 'gitugitu']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15652</v>
+        <v>26421</v>
       </c>
       <c r="C6" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>sopiiii</t>
+          <t>gitu neng</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['sopiiii']</t>
+          <t>['gitu', 'neng']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['begitu', 'neng']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['sopiiii']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['sopiiii']</t>
+          <t>['neng']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['neng']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15653</v>
+        <v>26422</v>
       </c>
       <c r="C7" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>sopiiii</t>
+          <t>tauk tu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['sopiiii']</t>
+          <t>['tauk', 'tu']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tau', 'itu']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['sopiiii']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['sopiiii']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15654</v>
+        <v>26423</v>
       </c>
       <c r="C8" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>dirimu sempurna</t>
+          <t>jaaaah</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['dirimu', 'sempurna']</t>
+          <t>['jaaaah']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['jaaaah']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['dirimu', 'sempurna']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['diri', 'sempurna']</t>
+          <t>['jaaaah']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['jaaaah']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15655</v>
+        <v>26424</v>
       </c>
       <c r="C9" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>guling</t>
+          <t>iya nich bun</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['guling']</t>
+          <t>['iya', 'nich', 'bun']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['iya', 'nih', 'bun']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['guling']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['guling']</t>
+          <t>['iya', 'bun']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['iya', 'bun']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15656</v>
+        <v>26425</v>
       </c>
       <c r="C10" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> yaudah</t>
+          <t>ga puasa ikutan bukber sp tu</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['yaudah']</t>
+          <t>['ga', 'puasa', 'ikutan', 'bukber', 'sp', 'tu']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tidak', 'puasa', 'ikutan', 'buka, bersama', 'sp', 'itu']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['yaudah']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['yaudah']</t>
+          <t>['puasa', 'ikutan', 'buka, bersama', 'sp']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['puasa', 'ikut', 'buka sama', 'sp']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15657</v>
+        <v>26426</v>
       </c>
       <c r="C11" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>is adalah</t>
+          <t>boleh ug</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['is', 'adalah']</t>
+          <t>['boleh', 'ug']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['boleh', 'ug']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['is']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['is']</t>
+          <t>['ug']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['ug']</t>
         </is>
       </c>
     </row>
@@ -835,32 +890,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15658</v>
+        <v>26427</v>
       </c>
       <c r="C12" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>aku</t>
+          <t>nanti aku jelasin</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['aku']</t>
+          <t>['nanti', 'aku', 'jelasin']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['nanti', 'aku', 'jelaskan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15659</v>
+        <v>26428</v>
       </c>
       <c r="C13" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>besok lg sob  tau ini melelahkan</t>
+          <t>iya</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['besok', 'lg', 'sob', 'tau', 'ini', 'melelahkan']</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['besok', 'lg', 'sob', 'melelahkan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['besok', 'lg', 'sob', 'lelah']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15660</v>
+        <v>26429</v>
       </c>
       <c r="C14" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>tp worth it bgt seriusan awet bangetttt wanginyaa</t>
+          <t>ilham diterkam beruang laut</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['tp', 'worth', 'it', 'bgt', 'seriusan', 'awet', 'bangetttt', 'wanginyaa']</t>
+          <t>['ilham', 'diterkam', 'beruang', 'laut']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['ilham', 'diterkam', 'beruang', 'laut']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['tp', 'worth', 'it', 'bgt', 'seriusan', 'awet', 'bangetttt', 'wanginyaa']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['tp', 'worth', 'it', 'bgt', 'serius', 'awet', 'bangetttt', 'wanginyaa']</t>
+          <t>['ilham', 'diterkam', 'beruang', 'laut']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['ilham', 'terkam', 'beruang', 'laut']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15661</v>
+        <v>26430</v>
       </c>
       <c r="C15" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>luar biasa</t>
+          <t>ko utta punya adek blangsak</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['luar', 'biasa']</t>
+          <t>['ko', 'utta', 'punya', 'adek', 'blangsak']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kok', 'utta', 'punya', 'adik', 'blangsak']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['utta', 'adik', 'blangsak']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['utta', 'adik', 'blangsak']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15662</v>
+        <v>26431</v>
       </c>
       <c r="C16" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>iyaaa</t>
+          <t>trs kapan ngobrol di kasur berdua tanpa batasan waktu jaaaaaah</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['iyaaa']</t>
+          <t>['trs', 'kapan', 'ngobrol', 'di', 'kasur', 'berdua', 'tanpa', 'batasan', 'waktu', 'jaaaaaah']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['terus', 'kapan', 'mengobrol', 'di', 'kasur', 'berdua', 'tanpa', 'batasan', 'waktu', 'jaaaaaah']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['iyaaa']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['iyaaa']</t>
+          <t>['mengobrol', 'kasur', 'berdua', 'batasan', 'jaaaaaah']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['obrol', 'kasur', 'dua', 'batas', 'jaaaaaah']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15663</v>
+        <v>26432</v>
       </c>
       <c r="C17" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>mo tidur</t>
+          <t>bebek knp di muka</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['mo', 'tidur']</t>
+          <t>['bebek', 'knp', 'di', 'muka']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['bebek', 'kenapa', 'di', 'muka']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['mo', 'tidur']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['mo', 'tidur']</t>
+          <t>['bebek', 'muka']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['bebek', 'muka']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15664</v>
+        <v>26433</v>
       </c>
       <c r="C18" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>curhat nih sob</t>
+          <t>baru opening udah ngiler</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['curhat', 'nih', 'sob']</t>
+          <t>['baru', 'opening', 'udah', 'ngiler']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['baru', 'opening', 'sudah', 'mengiler']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['curhat', 'sob']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['curhat', 'sob']</t>
+          <t>['opening', 'mengiler']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['opening', 'iler']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15665</v>
+        <v>26434</v>
       </c>
       <c r="C19" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>betul rul</t>
+          <t>kalo kumpul sebisa mungkin ngurangin main hp soalnya momen kek gini tuh udah mulai susah seiring waktu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['betul', 'rul']</t>
+          <t>['kalo', 'kumpul', 'sebisa', 'mungkin', 'ngurangin', 'main', 'hp', 'soalnya', 'momen', 'kek', 'gini', 'tuh', 'udah', 'mulai', 'susah', 'seiring', 'waktu']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kalau', 'kumpul', 'sebisa', 'mungkin', 'ngurangin', 'main', 'handphone', 'soalnya', 'momen', 'kayak', 'begini', 'itu', 'sudah', 'mulai', 'susah', 'seiring', 'waktu']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['rul']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['rul']</t>
+          <t>['kumpul', 'sebisa', 'ngurangin', 'main', 'handphone', 'momen', 'kayak', 'susah', 'seiring']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['kumpul', 'bisa', 'ngurangin', 'main', 'handphone', 'momen', 'kayak', 'susah', 'iring']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15666</v>
+        <v>26435</v>
       </c>
       <c r="C20" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>menerima semua yang telah terjadi mensyukuri nikmat hari ini dan belajar mengikhlaskan untuk segala hal yang belum</t>
+          <t>heran bun</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['menerima', 'semua', 'yang', 'telah', 'terjadi', 'mensyukuri', 'nikmat', 'hari', 'ini', 'dan', 'belajar', 'mengikhlaskan', 'untuk', 'segala', 'hal', 'yang', 'belum']</t>
+          <t>['heran', 'bun']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['heran', 'bun']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['menerima', 'mensyukuri', 'nikmat', 'belajar', 'mengikhlaskan']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['terima', 'syukur', 'nikmat', 'ajar', 'ikhlas']</t>
+          <t>['heran', 'bun']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['heran', 'bun']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15667</v>
+        <v>26436</v>
       </c>
       <c r="C21" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>auk</t>
+          <t>apalagi lupa bawa duit</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['auk']</t>
+          <t>['apalagi', 'lupa', 'bawa', 'duit']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['apalagi', 'lupa', 'bawa', 'duit']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['auk']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['auk']</t>
+          <t>['lupa', 'bawa', 'duit']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['lupa', 'bawa', 'duit']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15668</v>
+        <v>26437</v>
       </c>
       <c r="C22" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>jelasin dong</t>
+          <t>besok kaya</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['jelasin', 'dong']</t>
+          <t>['besok', 'kaya']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['besok', 'kayak']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['jelasin']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['jelasin']</t>
+          <t>['besok', 'kayak']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['besok', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15669</v>
+        <v>26438</v>
       </c>
       <c r="C23" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>kelakuan</t>
+          <t>ga buleh</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['kelakuan']</t>
+          <t>['ga', 'buleh']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tidak', 'boleh']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['kelakuan']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['laku']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15670</v>
+        <v>26439</v>
       </c>
       <c r="C24" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>bukannya dah diblokir</t>
+          <t>sama ko aku jugaaak</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['bukannya', 'dah', 'diblokir']</t>
+          <t>['sama', 'ko', 'aku', 'jugaaak']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['sama', 'kok', 'aku', 'jugaaak']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['dah', 'diblokir']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['dah', 'blokir']</t>
+          <t>['jugaaak']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['jugaaak']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15671</v>
+        <v>26440</v>
       </c>
       <c r="C25" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">cwk jg bisa </t>
+          <t>kurang ajar amat setannya</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['cwk', 'jg', 'bisa']</t>
+          <t>['kurang', 'ajar', 'amat', 'setannya']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kurang', 'ajar', 'amat', 'setannya']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['cwk', 'jg']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['cwk', 'jg']</t>
+          <t>['ajar', 'setannya']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['ajar', 'setan']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15672</v>
+        <v>26441</v>
       </c>
       <c r="C26" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ya kaaaan cocok buat ketemu doi</t>
+          <t>banyak ya</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['ya', 'kaaaan', 'cocok', 'buat', 'ketemu', 'doi']</t>
+          <t>['banyak', 'ya']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['banyak', 'ya']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['kaaaan', 'cocok', 'ketemu', 'doi']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['kaaaan', 'cocok', 'ketemu', 'doi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15673</v>
+        <v>26442</v>
       </c>
       <c r="C27" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>wanginya tuh soft gitu loh manis seger tapi gak lebay alias nyegerin banget bener cocok sama aku yang ceria hehe</t>
+          <t>ntar aja</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['wanginya', 'tuh', 'soft', 'gitu', 'loh', 'manis', 'seger', 'tapi', 'gak', 'lebay', 'alias', 'nyegerin', 'banget', 'bener', 'cocok', 'sama', 'aku', 'yang', 'ceria', 'hehe']</t>
+          <t>['ntar', 'aja']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['nanti', 'saja']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['wanginya', 'soft', 'gitu', 'manis', 'seger', 'lebay', 'alias', 'nyegerin', 'banget', 'bener', 'cocok', 'ceria']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['wangi', 'soft', 'gitu', 'manis', 'seger', 'lebay', 'alias', 'nyegerin', 'banget', 'bener', 'cocok', 'ceria']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15674</v>
+        <v>26443</v>
       </c>
       <c r="C28" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>daaaaan akhirnya aku teracuni sama temen kalo parfum onix yang fwb ini mantulita ga sia sia pencarian aku dong</t>
+          <t>makanya sambil makan aja</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['daaaaan', 'akhirnya', 'aku', 'teracuni', 'sama', 'temen', 'kalo', 'parfum', 'onix', 'yang', 'fwb', 'ini', 'mantulita', 'ga', 'sia', 'sia', 'pencarian', 'aku', 'dong']</t>
+          <t>['makanya', 'sambil', 'makan', 'aja']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['makanya', 'sambil', 'makan', 'saja']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['daaaaan', 'teracuni', 'temen', 'parfum', 'onix', 'fwb', 'mantulita', 'sia', 'sia', 'pencarian']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['daaaaan', 'racun', 'temen', 'parfum', 'onix', 'fwb', 'mantulita', 'sia', 'sia', 'cari']</t>
+          <t>['makan']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['makan']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15675</v>
+        <v>26444</v>
       </c>
       <c r="C29" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ini lhooo</t>
+          <t>lg libur bi</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['ini', 'lhooo']</t>
+          <t>['lg', 'libur', 'bi']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['lagi', 'libur', 'bi']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['lhooo']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['lhooo']</t>
+          <t>['libur', 'bi']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['libur', 'bi']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15676</v>
+        <v>26445</v>
       </c>
       <c r="C30" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>sabar sebagian dari duit</t>
+          <t>andayyy</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['sabar', 'sebagian', 'dari', 'duit']</t>
+          <t>['andayyy']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['andayyy']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['sabar', 'duit']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['sabar', 'duit']</t>
+          <t>['andayyy']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['andayyy']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15677</v>
+        <v>26446</v>
       </c>
       <c r="C31" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>soalnya aku sering banget gontaganti parfum bukan karena bosen tapi kek gak cocok aja gitu sama kepribadian aku</t>
+          <t>tapi tidak easy</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['soalnya', 'aku', 'sering', 'banget', 'gontaganti', 'parfum', 'bukan', 'karena', 'bosen', 'tapi', 'kek', 'gak', 'cocok', 'aja', 'gitu', 'sama', 'kepribadian', 'aku']</t>
+          <t>['tapi', 'tidak', 'easy']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['tapi', 'tidak', 'easy']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['banget', 'gontaganti', 'parfum', 'bosen', 'kek', 'cocok', 'gitu', 'kepribadian']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['banget', 'gontaganti', 'parfum', 'bosen', 'kek', 'cocok', 'gitu', 'pribadi']</t>
+          <t>['easy']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['easy']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15678</v>
+        <v>26447</v>
       </c>
       <c r="C32" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>filter gudang garam</t>
+          <t>kenapa jam segini tuh bawaannya ngantuk banget</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['filter', 'gudang', 'garam']</t>
+          <t>['kenapa', 'jam', 'segini', 'tuh', 'bawaannya', 'ngantuk', 'banget']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kenapa', 'jam', 'segini', 'itu', 'bawaannya', 'mengantuk', 'banget']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['filter', 'gudang', 'garam']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['filter', 'gudang', 'garam']</t>
+          <t>['jam', 'segini', 'bawaannya', 'mengantuk', 'banget']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['jam', 'gin', 'bawa', 'antuk', 'banget']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15679</v>
+        <v>26448</v>
       </c>
       <c r="C33" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>uji nyali dengan kesendirian</t>
+          <t>babat abis aja udah</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['uji', 'nyali', 'dengan', 'kesendirian']</t>
+          <t>['babat', 'abis', 'aja', 'udah']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['babat', 'habis', 'saja', 'sudah']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['uji', 'nyali', 'kesendirian']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['uji', 'nyali', 'sendiri']</t>
+          <t>['babat', 'habis']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['babat', 'habis']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15680</v>
+        <v>26449</v>
       </c>
       <c r="C34" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>saksikan sebentar lg bunnn</t>
+          <t>cantik</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['saksikan', 'sebentar', 'lg', 'bunnn']</t>
+          <t>['cantik']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['cantik']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['saksikan', 'sebentar', 'lg', 'bunnn']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['saksi', 'sebentar', 'lg', 'bunnn']</t>
+          <t>['cantik']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['cantik']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15681</v>
+        <v>26450</v>
       </c>
       <c r="C35" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>tunggu bntr lg bun</t>
+          <t>iya juga ya</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['tunggu', 'bntr', 'lg', 'bun']</t>
+          <t>['iya', 'juga', 'ya']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['iya', 'juga', 'ya']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['tunggu', 'bntr', 'lg', 'bun']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['tunggu', 'bntr', 'lg', 'bun']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15682</v>
+        <v>26451</v>
       </c>
       <c r="C36" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ini otw bun</t>
+          <t>gimana bun</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['ini', 'otw', 'bun']</t>
+          <t>['gimana', 'bun']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['bagaimana', 'bun']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['otw', 'bun']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['otw', 'bun']</t>
+          <t>['bun']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['bun']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15683</v>
+        <v>26452</v>
       </c>
       <c r="C37" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ini loo</t>
+          <t xml:space="preserve">diblok kali </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['ini', 'loo']</t>
+          <t>['diblok', 'kali']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['diblok', 'kali']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['loo']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['loo']</t>
+          <t>['diblok', 'kali']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['blok', 'kali']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15684</v>
+        <v>26453</v>
       </c>
       <c r="C38" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>tunggu sebentar</t>
+          <t>nya pake sistem kebut dijamin bisa bun bisa gila</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['tunggu', 'sebentar']</t>
+          <t>['nya', 'pake', 'sistem', 'kebut', 'dijamin', 'bisa', 'bun', 'bisa', 'gila']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['nya', 'pakai', 'sistem', 'kebut', 'dijamin', 'bisa', 'bun', 'bisa', 'gila']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['tunggu', 'sebentar']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['tunggu', 'sebentar']</t>
+          <t>['pakai', 'sistem', 'kebut', 'dijamin', 'bun', 'gila']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['pakai', 'sistem', 'kebut', 'jamin', 'bun', 'gila']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15685</v>
+        <v>26454</v>
       </c>
       <c r="C39" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>otw niech</t>
+          <t xml:space="preserve">rejeki </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['otw', 'niech']</t>
+          <t>['rejeki']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rejeki']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['otw', 'niech']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['otw', 'niech']</t>
+          <t>['rejeki']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['rejeki']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15686</v>
+        <v>26455</v>
       </c>
       <c r="C40" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>bental bunnss</t>
+          <t xml:space="preserve">hbd </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['bental', 'bunnss']</t>
+          <t>['hbd']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['selamat, ulang, tahun']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['bental', 'bunnss']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['bental', 'bunnss']</t>
+          <t>['selamat, ulang, tahun']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['selamat ulang tahun']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15687</v>
+        <v>26456</v>
       </c>
       <c r="C41" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>agak perih</t>
+          <t>ya kaaaan</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['agak', 'perih']</t>
+          <t>['ya', 'kaaaan']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['ya', 'kaaaan']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['perih']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['perih']</t>
+          <t>['kaaaan']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['kaaaan']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15688</v>
+        <v>26457</v>
       </c>
       <c r="C42" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>bener ya</t>
+          <t>taw aja nih bun</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['bener', 'ya']</t>
+          <t>['taw', 'aja', 'nih', 'bun']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tau', 'saja', 'nih', 'bun']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['bener']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['bener']</t>
+          <t>['bun']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['bun']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15689</v>
+        <v>26458</v>
       </c>
       <c r="C43" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>sabar biii</t>
+          <t>ada yg neww</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['sabar', 'biii']</t>
+          <t>['ada', 'yg', 'neww']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['ada', 'yang', 'neww']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['sabar', 'biii']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['sabar', 'biii']</t>
+          <t>['neww']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['neww']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15690</v>
+        <v>26459</v>
       </c>
       <c r="C44" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>milih yg milih aku</t>
+          <t>penasaran yhh</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['milih', 'yg', 'milih', 'aku']</t>
+          <t>['penasaran', 'yhh']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+          <t>['penasaran', 'yhh']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['milih', 'milih']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['milih', 'milih']</t>
+          <t>['penasaran', 'yhh']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['penasaran', 'yhh']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15691</v>
+        <v>26460</v>
       </c>
       <c r="C45" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">selain nemu skincare yang ampuh reviewreview di twitter juga menemukan aku dengan parfum yang cocok banget sama </t>
+          <t>nya kamu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['selain', 'nemu', 'skincare', 'yang', 'ampuh', 'reviewreview', 'di', 'twitter', 'juga', 'menemukan', 'aku', 'dengan', 'parfum', 'yang', 'cocok', 'banget', 'sama']</t>
+          <t>['nya', 'kamu']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['nya', 'kamu']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['nemu', 'skincare', 'ampuh', 'reviewreview', 'twitter', 'menemukan', 'parfum', 'cocok', 'banget']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['nemu', 'skincare', 'ampuh', 'reviewreview', 'twitter', 'temu', 'parfum', 'cocok', 'banget']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15692</v>
+        <v>26461</v>
       </c>
       <c r="C46" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>khairen februari berasa ngebut</t>
+          <t>tentuuu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['khairen', 'februari', 'berasa', 'ngebut']</t>
+          <t>['tentuuu']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tentuuu']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['khairen', 'februari', 'berasa', 'ngebut']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['khairen', 'februari', 'asa', 'ngebut']</t>
+          <t>['tentuuu']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['tentuuu']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15693</v>
+        <v>26462</v>
       </c>
       <c r="C47" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>dahal kk itu baiq hatix</t>
+          <t>coba tebak</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['dahal', 'kk', 'itu', 'baiq', 'hatix']</t>
+          <t>['coba', 'tebak']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['coba', 'tebak']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['dahal', 'kk', 'baiq', 'hatix']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['dahal', 'kk', 'baiq', 'hatix']</t>
+          <t>['coba', 'tebak']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['coba', 'tebak']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15694</v>
+        <v>26463</v>
       </c>
       <c r="C48" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>jgn tanya sudah jelas  dia dan qita smua</t>
+          <t>saat di situ ada kata spesial dan saat itulah hatiku degdegan alias seneng banget duh jadi penasaran kan bia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['jgn', 'tanya', 'sudah', 'jelas', 'dia', 'dan', 'qita', 'smua']</t>
+          <t>['saat', 'di', 'situ', 'ada', 'kata', 'spesial', 'dan', 'saat', 'itulah', 'hatiku', 'degdegan', 'alias', 'seneng', 'banget', 'duh', 'jadi', 'penasaran', 'kan', 'bia']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['saat', 'di', 'situ', 'ada', 'kata', 'spesial', 'dan', 'saat', 'itulah', 'hatiku', 'degdegan', 'alias', 'senang', 'banget', 'aduh', 'jadi', 'penasaran', 'kan', 'bia']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['qita', 'smua']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['qita', 'smua']</t>
+          <t>['situ', 'spesial', 'hatiku', 'degdegan', 'alias', 'senang', 'banget', 'aduh', 'penasaran', 'bia']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['situ', 'spesial', 'hati', 'degdegan', 'alias', 'senang', 'banget', 'aduh', 'penasaran', 'bia']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15695</v>
+        <v>26464</v>
       </c>
       <c r="C49" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>itu pasti ciki komi</t>
+          <t>aqqqq</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['itu', 'pasti', 'ciki', 'komi']</t>
+          <t>['aqqqq']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['aqqqq']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['ciki', 'komi']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['cik', 'kom']</t>
+          <t>['aqqqq']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['aqqqq']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15696</v>
+        <v>26465</v>
       </c>
       <c r="C50" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>selamat hari kebalikan</t>
+          <t>bilang apa dulu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'kebalikan']</t>
+          <t>['bilang', 'apa', 'dulu']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['bilang', 'apa', 'dulu']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['selamat', 'kebalikan']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['selamat', 'balik']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15697</v>
+        <v>26466</v>
       </c>
       <c r="C51" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngaji </t>
+          <t>mau bilang tua sopan ga ya hbddddd</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['ngaji']</t>
+          <t>['mau', 'bilang', 'tua', 'sopan', 'ga', 'ya', 'hbddddd']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['mau', 'bilang', 'tua', 'sopan', 'tidak', 'ya', 'hbddddd']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['ngaji']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['ngaji']</t>
+          <t>['tua', 'sopan', 'hbddddd']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['tua', 'sopan', 'hbddddd']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,35 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15698</v>
+        <v>26467</v>
       </c>
       <c r="C52" t="n">
-        <v>198</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>mandi</t>
-        </is>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['mandi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['mandi']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['mandi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15699</v>
+        <v>26468</v>
       </c>
       <c r="C53" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>mandi duls</t>
+          <t>ga koberrrr</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['mandi', 'duls']</t>
+          <t>['ga', 'koberrrr']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['tidak', 'koberrrr']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['mandi', 'duls']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['mandi', 'duls']</t>
+          <t>['koberrrr']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['koberrrr']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15700</v>
+        <v>26469</v>
       </c>
       <c r="C54" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>yaudahlah</t>
+          <t>iya jg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['yaudahlah']</t>
+          <t>['iya', 'jg']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['iya', 'juga']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['yaudahlah']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['yaudahlah']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15701</v>
+        <v>26470</v>
       </c>
       <c r="C55" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>heh</t>
+          <t>termasuk ogi</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['heh']</t>
+          <t>['termasuk', 'ogi']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['termasuk', 'ogi']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['heh']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['heh']</t>
+          <t>['ogi']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['ogi']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15702</v>
+        <v>26471</v>
       </c>
       <c r="C56" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>mau ngapain lagi ya hari ini</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['mau', 'ngapain', 'lagi', 'ya', 'hari', 'ini']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['ngapain']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['ngapain']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2731,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15703</v>
+        <v>26472</v>
       </c>
       <c r="C57" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>pg</t>
+          <t>tos dulu</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['pg']</t>
+          <t>['tos', 'dulu']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tos', 'dulu']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['pg']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['pg']</t>
+          <t>['tos']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['tos']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2772,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15704</v>
+        <v>26473</v>
       </c>
       <c r="C58" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>met pg fens emyu</t>
+          <t>bike  gmn ogi ganteng</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['met', 'pg', 'fens', 'emyu']</t>
+          <t>['bike', 'gmn', 'ogi', 'ganteng']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['bike', 'bagaimana', 'ogi', 'ganteng']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['met', 'pg', 'fens', 'emyu']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['met', 'pg', 'fens', 'emyu']</t>
+          <t>['bike', 'ogi', 'ganteng']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['bike', 'ogi', 'ganteng']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2813,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15705</v>
+        <v>26474</v>
       </c>
       <c r="C59" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>otw bgggg</t>
+          <t>nax pinter</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['otw', 'bgggg']</t>
+          <t>['nax', 'pinter']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['ingin', 'pintar']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['otw', 'bgggg']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['otw', 'bgggg']</t>
+          <t>['pintar']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['pintar']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2854,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15706</v>
+        <v>26475</v>
       </c>
       <c r="C60" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>awwwww</t>
+          <t>kenapa gituu</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['awwwww']</t>
+          <t>['kenapa', 'gituu']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kenapa', 'begitu']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['awwwww']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['awwwww']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2895,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15707</v>
+        <v>26476</v>
       </c>
       <c r="C61" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>besok bimmm</t>
+          <t>nya gitu dong</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['besok', 'bimmm']</t>
+          <t>['nya', 'gitu', 'dong']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['nya', 'begitu', 'dong']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['besok', 'bimmm']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['besok', 'bimmm']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2936,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15708</v>
+        <v>26477</v>
       </c>
       <c r="C62" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>kamu gitu gak</t>
+          <t>iya donk</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['kamu', 'gitu', 'gak']</t>
+          <t>['iya', 'donk']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['iya', 'dong']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['gitu']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['gitu']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2977,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15709</v>
+        <v>26478</v>
       </c>
       <c r="C63" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>iya donk</t>
+          <t>biarlaaah</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['iya', 'donk']</t>
+          <t>['biarlaaah']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['biarlaaah']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['iya', 'donk']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['iya', 'donk']</t>
+          <t>['biarlaaah']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['biarlaaah']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3018,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15710</v>
+        <v>26479</v>
       </c>
       <c r="C64" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>gosah cerita diri sendiri</t>
+          <t>harus</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['gosah', 'cerita', 'diri', 'sendiri']</t>
+          <t>['harus']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['harus']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['gosah', 'cerita']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['gosah', 'cerita']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3059,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15711</v>
+        <v>26480</v>
       </c>
       <c r="C65" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>gimana geh</t>
+          <t>gak bangeeet</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['gimana', 'geh']</t>
+          <t>['gak', 'bangeeet']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['tidak', 'banget']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['gimana', 'geh']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['gimana', 'geh']</t>
+          <t>['banget']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['banget']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3100,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15712</v>
+        <v>26481</v>
       </c>
       <c r="C66" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>hahayyy</t>
+          <t>walaupun suckit</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['hahayyy']</t>
+          <t>['walaupun', 'suckit']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['walaupun', 'suckit']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['hahayyy']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['hahayyy']</t>
+          <t>['suckit']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['suckit']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3141,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15713</v>
+        <v>26482</v>
       </c>
       <c r="C67" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>kalo telfonan ga suka lamalama soalnya lebih suka chattingan tapi lebih suka lagi ketemu langsung</t>
+          <t>iyaaaaaaaaaa</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['kalo', 'telfonan', 'ga', 'suka', 'lamalama', 'soalnya', 'lebih', 'suka', 'chattingan', 'tapi', 'lebih', 'suka', 'lagi', 'ketemu', 'langsung']</t>
+          <t>['iyaaaaaaaaaa']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+          <t>['iyaaaaaaaaaa']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['telfonan', 'suka', 'lamalama', 'suka', 'chattingan', 'suka', 'ketemu', 'langsung']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['telfonan', 'suka', 'lamalama', 'suka', 'chattingan', 'suka', 'ketemu', 'langsung']</t>
+          <t>['iyaaaaaaaaaa']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['iyaaaaaaaaaa']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3182,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15714</v>
+        <v>26483</v>
       </c>
       <c r="C68" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>aq</t>
+          <t>kasih tau ky</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['aq']</t>
+          <t>['kasih', 'tau', 'ky']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kasih', 'tau', 'ky']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['aq']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['aq']</t>
+          <t>['kasih', 'ky']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['kasih', 'ky']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3223,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15715</v>
+        <v>26484</v>
       </c>
       <c r="C69" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>keknya harus segera dipeluk dgn kekayaan ta</t>
+          <t>iya ituu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['keknya', 'harus', 'segera', 'dipeluk', 'dgn', 'kekayaan', 'ta']</t>
+          <t>['iya', 'ituu']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['iya', 'itu']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['keknya', 'dipeluk', 'kekayaan', 'ta']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['kek', 'peluk', 'kaya', 'ta']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3264,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15716</v>
+        <v>26485</v>
       </c>
       <c r="C70" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>hbd utaa</t>
+          <t>serem jg disambit</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['hbd', 'utaa']</t>
+          <t>['serem', 'jg', 'disambit']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['seram', 'juga', 'disambit']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['hbd', 'utaa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['hbd', 'utaa']</t>
+          <t>['seram', 'disambit']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['seram', 'sambit']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3305,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15717</v>
+        <v>26486</v>
       </c>
       <c r="C71" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>masaaaaaaaaaaaaa</t>
+          <t>masok</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['masaaaaaaaaaaaaa']</t>
+          <t>['masok']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['masok']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['masaaaaaaaaaaaaa']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['masaaaaaaaaaaaaa']</t>
+          <t>['masok']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['masok']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3346,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15718</v>
+        <v>26487</v>
       </c>
       <c r="C72" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>capek banget udahan</t>
+          <t>yang sudah menghilang biarlah hanya untuk dikenang jangan sampai terulang</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['capek', 'banget', 'udahan']</t>
+          <t>['yang', 'sudah', 'menghilang', 'biarlah', 'hanya', 'untuk', 'dikenang', 'jangan', 'sampai', 'terulang']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['yang', 'sudah', 'menghilang', 'biarlah', 'hanya', 'untuk', 'dikenang', 'jangan', 'sampai', 'terulang']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['capek', 'banget', 'udahan']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['capek', 'banget', 'udahan']</t>
+          <t>['menghilang', 'biarlah', 'dikenang', 'terulang']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['hilang', 'biar', 'kenang', 'ulang']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15719</v>
+        <v>26488</v>
       </c>
       <c r="C73" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>jossss</t>
+          <t>ko sama</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['jossss']</t>
+          <t>['ko', 'sama']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kok', 'sama']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['jossss']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['jossss']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3428,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15720</v>
+        <v>26489</v>
       </c>
       <c r="C74" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jaaaah penerus usai</t>
+          <t>begitulaah</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['jaaaah', 'penerus', 'usai']</t>
+          <t>['begitulaah']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['begitulaah']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['jaaaah', 'penerus']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['jaaaah', 'terus']</t>
+          <t>['begitulaah']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['begitulaah']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3469,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15721</v>
+        <v>26490</v>
       </c>
       <c r="C75" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>liat</t>
+          <t>jd jagung dong</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['liat']</t>
+          <t>['jd', 'jagung', 'dong']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['jadi', 'jagung', 'dong']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['liat']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['liat']</t>
+          <t>['jagung']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['jagung']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3510,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15722</v>
+        <v>26491</v>
       </c>
       <c r="C76" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>aku arep pindah kono ko banjir terus ki piye sob</t>
+          <t>sek tak ambekan</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['aku', 'arep', 'pindah', 'kono', 'ko', 'banjir', 'terus', 'ki', 'piye', 'sob']</t>
+          <t>['sek', 'tak', 'ambekan']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['sek', 'tak', 'ambekan']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['arep', 'pindah', 'kono', 'ko', 'banjir', 'ki', 'piye', 'sob']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['arep', 'pindah', 'kono', 'ko', 'banjir', 'ki', 'piye', 'sob']</t>
+          <t>['sek', 'ambekan']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['sek', 'ambek']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3551,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15723</v>
+        <v>26492</v>
       </c>
       <c r="C77" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">usai </t>
+          <t xml:space="preserve">makin canggih </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['usai']</t>
+          <t>['makin', 'canggih']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['makin', 'canggih']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['canggih']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['canggih']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3592,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15724</v>
+        <v>26493</v>
       </c>
       <c r="C78" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>udang betul</t>
+          <t>sedep amat</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['udang', 'betul']</t>
+          <t>['sedep', 'amat']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['sedep', 'amat']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['udang']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['udang']</t>
+          <t>['sedep']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['sedep']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3633,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15725</v>
+        <v>26494</v>
       </c>
       <c r="C79" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>kannn</t>
+          <t>berita paling up to date</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['kannn']</t>
+          <t>['berita', 'paling', 'up', 'to', 'date']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['berita', 'paling', 'up', 'to', 'date']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['kannn']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['kannn']</t>
+          <t>['berita', 'up', 'to', 'date']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['berita', 'up', 'to', 'date']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3674,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15726</v>
+        <v>26495</v>
       </c>
       <c r="C80" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>grgr licyinnn</t>
+          <t>palkon yg buat nyantai kalo sore sambil memandang sanset</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['grgr', 'licyinnn']</t>
+          <t>['palkon', 'yg', 'buat', 'nyantai', 'kalo', 'sore', 'sambil', 'memandang', 'sanset']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['palkon', 'yang', 'buat', 'bersantai', 'kalau', 'sore', 'sambil', 'memandang', 'sanset']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['grgr', 'licyinnn']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['grgr', 'licyinnn']</t>
+          <t>['palkon', 'bersantai', 'sore', 'memandang', 'sanset']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['palkon', 'santa', 'sore', 'pandang', 'sanset']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3715,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15727</v>
+        <v>26496</v>
       </c>
       <c r="C81" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>berbaik sangka itu emang harus tapi memikirkan hal yang di luar dugaan itu juga perlu antisipasi aja sih biar gak nyakitin banget</t>
+          <t>bilang apa</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['berbaik', 'sangka', 'itu', 'emang', 'harus', 'tapi', 'memikirkan', 'hal', 'yang', 'di', 'luar', 'dugaan', 'itu', 'juga', 'perlu', 'antisipasi', 'aja', 'sih', 'biar', 'gak', 'nyakitin', 'banget']</t>
+          <t>['bilang', 'apa']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
+          <t>['bilang', 'apa']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['berbaik', 'sangka', 'emang', 'memikirkan', 'dugaan', 'antisipasi', 'nyakitin', 'banget']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['baik', 'sangka', 'emang', 'pikir', 'duga', 'antisipasi', 'nyakitin', 'banget']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3756,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15728</v>
+        <v>26497</v>
       </c>
       <c r="C82" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>sapa tu</t>
+          <t>hai</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['sapa', 'tu']</t>
+          <t>['hai']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['hai']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['sapa', 'tu']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['sapa', 'tu']</t>
+          <t>['hai']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['hai']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3797,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15729</v>
+        <v>26498</v>
       </c>
       <c r="C83" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>pray for dafi</t>
+          <t>kasih mam majikan dulu bun</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['pray', 'for', 'dafi']</t>
+          <t>['kasih', 'mam', 'majikan', 'dulu', 'bun']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kasih', 'mam', 'majikan', 'dulu', 'bun']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['pray', 'for', 'dafi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['pray', 'for', 'dafi']</t>
+          <t>['kasih', 'mam', 'majikan', 'bun']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['kasih', 'mam', 'majikan', 'bun']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3838,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15730</v>
+        <v>26499</v>
       </c>
       <c r="C84" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>pasti si anu</t>
+          <t>thefarmer nnti tumpah</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['pasti', 'si', 'anu']</t>
+          <t>['thefarmer', 'nnti', 'tumpah']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['thefarmer', 'nanti', 'tumpah']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['anu']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['anu']</t>
+          <t>['thefarmer', 'tumpah']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['thefarmer', 'tumpah']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3879,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15731</v>
+        <v>26500</v>
       </c>
       <c r="C85" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>itu tangannya kecekek kasian</t>
+          <t>pedih</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['itu', 'tangannya', 'kecekek', 'kasian']</t>
+          <t>['pedih']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['pedih']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['tangannya', 'kecekek', 'kasian']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['tangan', 'cekek', 'kasi']</t>
+          <t>['pedih']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['pedih']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3920,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15732</v>
+        <v>26501</v>
       </c>
       <c r="C86" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>lucu nih</t>
+          <t>bener jg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['lucu', 'nih']</t>
+          <t>['bener', 'jg']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['benar', 'juga']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['lucu']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['lucu']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3961,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15733</v>
+        <v>26502</v>
       </c>
       <c r="C87" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>permen sikil</t>
+          <t>ojol</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['permen', 'sikil']</t>
+          <t>['ojol']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['ojek, online']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['permen', 'sikil']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['permen', 'sikil']</t>
+          <t>['ojek, online']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['ojek online']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4002,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15734</v>
+        <v>26503</v>
       </c>
       <c r="C88" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>kenapaaaaaa</t>
+          <t>udah</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['kenapaaaaaa']</t>
+          <t>['udah']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['sudah']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['kenapaaaaaa']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['kenapaaaaaa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4043,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15735</v>
+        <v>26504</v>
       </c>
       <c r="C89" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>gengsi ko digedein</t>
+          <t>nyuci dulu</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['gengsi', 'ko', 'digedein']</t>
+          <t>['nyuci', 'dulu']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['mencuci', 'dulu']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['gengsi', 'ko', 'digedein']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['gengsi', 'ko', 'digedein']</t>
+          <t>['mencuci']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['cuci']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4084,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15736</v>
+        <v>26505</v>
       </c>
       <c r="C90" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>sebenernya itu mau ngusir tp pake cara alus</t>
+          <t>mau santaisantai tapi keinget cucian</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['sebenernya', 'itu', 'mau', 'ngusir', 'tp', 'pake', 'cara', 'alus']</t>
+          <t>['mau', 'santaisantai', 'tapi', 'keinget', 'cucian']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['mau', 'santaisantai', 'tapi', 'teringat', 'cucian']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['sebenernya', 'ngusir', 'tp', 'pake', 'alus']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['sebenernya', 'ngusir', 'tp', 'pake', 'alus']</t>
+          <t>['santaisantai', 'cucian']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['santaisantai', 'cuci']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4125,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15737</v>
+        <v>26506</v>
       </c>
       <c r="C91" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>nya cari sugar daddy dulu san</t>
+          <t>selamat ulang tahunnn</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['nya', 'cari', 'sugar', 'daddy', 'dulu', 'san']</t>
+          <t>['selamat', 'ulang', 'tahunnn']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['selamat', 'ulang', 'tahunnn']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['cari', 'sugar', 'daddy', 'san']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['cari', 'sugar', 'daddy', 'san']</t>
+          <t>['selamat', 'ulang', 'tahunnn']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang', 'tahunnn']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4166,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15738</v>
+        <v>26507</v>
       </c>
       <c r="C92" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>awali hari dengan sarapan kalo gak nanti laper</t>
+          <t>daripada gedein gengsi mending gedein anu</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['awali', 'hari', 'dengan', 'sarapan', 'kalo', 'gak', 'nanti', 'laper']</t>
+          <t>['daripada', 'gedein', 'gengsi', 'mending', 'gedein', 'anu']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['daripada', 'gedekan', 'gengsi', 'mending', 'gedekan', 'anu']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['awali', 'sarapan', 'laper']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['awal', 'sarap', 'laper']</t>
+          <t>['gedekan', 'gengsi', 'mending', 'gedekan', 'anu']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['gede', 'gengsi', 'mending', 'gede', 'anu']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4207,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15739</v>
+        <v>26508</v>
       </c>
       <c r="C93" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>nah gitu donggg</t>
+          <t>betul ituuu</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['nah', 'gitu', 'donggg']</t>
+          <t>['betul', 'ituuu']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['betul', 'itu']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['gitu', 'donggg']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['gitu', 'donggg']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4248,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15740</v>
+        <v>26509</v>
       </c>
       <c r="C94" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ko bisaaaa</t>
+          <t>dah kangen berat yh</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['ko', 'bisaaaa']</t>
+          <t>['dah', 'kangen', 'berat', 'yh']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sudah', 'kangen', 'berat', 'ya']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['ko', 'bisaaaa']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['ko', 'bisaaaa']</t>
+          <t>['kangen', 'berat']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['kangen', 'berat']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4289,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15741</v>
+        <v>26510</v>
       </c>
       <c r="C95" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>yuk lunasin</t>
+          <t>matanya kecoloque</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['yuk', 'lunasin']</t>
+          <t>['matanya', 'kecoloque']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['matanya', 'kecoloque']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>['yuk', 'lunasin']</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['yuk', 'lunasin']</t>
+          <t>['matanya', 'kecoloque']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['mata', 'kecoloque']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15742</v>
+        <v>26511</v>
       </c>
       <c r="C96" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ga gitu caranya</t>
+          <t>marchhhhhhhh</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['ga', 'gitu', 'caranya']</t>
+          <t>['marchhhhhhhh']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['marchhhhhhhh']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['gitu']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['gitu']</t>
+          <t>['marchhhhhhhh']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['marchhhhhhhh']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15743</v>
+        <v>26512</v>
       </c>
       <c r="C97" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>kewreeennn</t>
+          <t>bener</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['kewreeennn']</t>
+          <t>['bener']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['benar']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['kewreeennn']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['kewreeennn']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15744</v>
+        <v>26513</v>
       </c>
       <c r="C98" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>mantulita</t>
+          <t>enak tu bg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['mantulita']</t>
+          <t>['enak', 'tu', 'bg']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['enak', 'itu', 'bagi']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['mantulita']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['mantulita']</t>
+          <t>['enak']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['enak']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15745</v>
+        <v>26514</v>
       </c>
       <c r="C99" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>alhamdulillah gaspol bun</t>
+          <t>speeti tarzan</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'gaspol', 'bun']</t>
+          <t>['speeti', 'tarzan']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['speeti', 'tarzan']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'gaspol', 'bun']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'gaspol', 'bun']</t>
+          <t>['speeti', 'tarzan']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['speeti', 'tarzan']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15746</v>
+        <v>26515</v>
       </c>
       <c r="C100" t="n">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>hooh nih</t>
+          <t>iayaa</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['hooh', 'nih']</t>
+          <t>['iayaa']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['iayaa']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['hooh']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['hooh']</t>
+          <t>['iayaa']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['iayaa']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4535,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15747</v>
+        <v>26516</v>
       </c>
       <c r="C101" t="n">
-        <v>198</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>ciipoo ngutangnya sebulan</t>
-        </is>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['ciipoo', 'ngutangnya', 'sebulan']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['ciipoo', 'ngutangnya', 'sebulan']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['ciipoo', 'ngutangnya', 'bulan']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
